--- a/reports/figures_results/zoom_model/simple_model/tune_trade_off/table_trade_off.xlsx
+++ b/reports/figures_results/zoom_model/simple_model/tune_trade_off/table_trade_off.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dossier\TrackingNatation\TrackingSwimmingENPC\reports\figures_results\zoom_model\simple_model\tune_trade_off\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7100E7D5-769C-447E-824D-A3891E570EC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34F18A2-6B13-406A-BA13-6DE157D19525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11265" xr2:uid="{1F487CED-9A05-4522-A4D1-416696715097}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F487CED-9A05-4522-A4D1-416696715097}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -45,98 +45,98 @@
     <t>0.1</t>
   </si>
   <si>
-    <t>17.225579461657954</t>
-  </si>
-  <si>
-    <t>0.7881313131313131</t>
-  </si>
-  <si>
     <t>1.2</t>
   </si>
   <si>
     <t>0.7702020202020203</t>
   </si>
   <si>
-    <t>25.322137922040763</t>
-  </si>
-  <si>
     <t>2.3</t>
   </si>
   <si>
-    <t>0.8738215488215487</t>
-  </si>
-  <si>
-    <t>22.30118987425815</t>
-  </si>
-  <si>
     <t>3.4</t>
   </si>
   <si>
-    <t>30.8381682968436</t>
-  </si>
-  <si>
-    <t>0.753114478114478</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
-    <t>22.34428728855441</t>
-  </si>
-  <si>
-    <t>0.7555555555555556</t>
-  </si>
-  <si>
     <t>5.6</t>
   </si>
   <si>
-    <t>18.67297680188928</t>
-  </si>
-  <si>
-    <t>0.7867845117845119</t>
-  </si>
-  <si>
     <t>6.7</t>
   </si>
   <si>
-    <t>0.8428451178451176</t>
-  </si>
-  <si>
-    <t>21.427805615566008</t>
-  </si>
-  <si>
     <t>7.8</t>
   </si>
   <si>
-    <t>24.497150258593457</t>
-  </si>
-  <si>
-    <t>0.8043771043771042</t>
-  </si>
-  <si>
     <t>8.9</t>
   </si>
   <si>
-    <t>0.7930976430976432</t>
-  </si>
-  <si>
-    <t>22.902071468100484</t>
-  </si>
-  <si>
-    <t>0.8131313131313131</t>
-  </si>
-  <si>
-    <t>23.964174807954276</t>
-  </si>
-  <si>
     <t>10.</t>
+  </si>
+  <si>
+    <t>0.788</t>
+  </si>
+  <si>
+    <t>0.874</t>
+  </si>
+  <si>
+    <t>0.753</t>
+  </si>
+  <si>
+    <t>0.756</t>
+  </si>
+  <si>
+    <t>0.787</t>
+  </si>
+  <si>
+    <t>0.843</t>
+  </si>
+  <si>
+    <t>0.804</t>
+  </si>
+  <si>
+    <t>0.793</t>
+  </si>
+  <si>
+    <t>0.813</t>
+  </si>
+  <si>
+    <t>17.226</t>
+  </si>
+  <si>
+    <t>25.322</t>
+  </si>
+  <si>
+    <t>22.301</t>
+  </si>
+  <si>
+    <t>30.838</t>
+  </si>
+  <si>
+    <t>22.344</t>
+  </si>
+  <si>
+    <t>18.673</t>
+  </si>
+  <si>
+    <t>21.428</t>
+  </si>
+  <si>
+    <t>24.497</t>
+  </si>
+  <si>
+    <t>22.902</t>
+  </si>
+  <si>
+    <t>23.964</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,16 +150,29 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -167,13 +180,193 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,135 +683,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BBF503-1443-4BC0-B80B-B9BB593C732C}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C11" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
